--- a/example/reports_31.05.2016-13.4.32.853/weakly_correled_summary.xlsx
+++ b/example/reports_31.05.2016-13.4.32.853/weakly_correled_summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epronina\Documents\gen_algorithm_doc\reports_31.05.2016-13.4.32.853\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epronina\Desktop\university\git\diplom\example\reports_31.05.2016-13.4.32.853\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="9900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="91">
   <si>
     <t xml:space="preserve">Danzig _algorithm_x000D_
 Single-point crossover_x000D_
@@ -500,6 +500,9 @@
   <si>
     <t>min from the i(average) min</t>
   </si>
+  <si>
+    <t>deviation %</t>
+  </si>
 </sst>
 </file>
 
@@ -30561,7 +30564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -32465,9 +32468,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW22"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:AW24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -33887,7 +33892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -33900,7 +33905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -33913,7 +33918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -33926,7 +33931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -33939,7 +33944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -33952,7 +33957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -33963,6 +33968,203 @@
       <c r="E22">
         <f xml:space="preserve"> COUNTIF(B7:AW7,D22)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24">
+        <f>100-B2</f>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:AW24" si="0">100-C2</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000568</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999829</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="0"/>
+        <v>0.29000000000000625</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="0"/>
+        <v>0.82999999999999829</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="0"/>
+        <v>0.45999999999999375</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
